--- a/src/main/resources/templates/excelTemples.xlsx
+++ b/src/main/resources/templates/excelTemples.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,6 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovej\IdeaProjects\dem\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9ED3B0-D84B-4C38-BFBA-B6434E2491D4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" xr2:uid="{66D246A4-1870-4BAB-BDDB-AEEA6D1F97D1}"/>
   </bookViews>
@@ -111,8 +112,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="[=0]&quot;&quot;;General"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -265,9 +267,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -285,6 +284,9 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1009,7 +1011,7 @@
   <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1021,81 +1023,81 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="9" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9" t="s">
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9" t="s">
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9" t="s">
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9" t="s">
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9" t="s">
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9" t="s">
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9" t="s">
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9" t="s">
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9" t="s">
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
     </row>
     <row r="2" spans="1:46" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1239,185 +1241,185 @@
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="13">
         <f ca="1">SUM(INDIRECT("R1C:R[-1]C",))</f>
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="13">
         <f ca="1">SUM(INDIRECT("R1C:R[-1]C",))</f>
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="e">
-        <f ca="1">C3/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="7" t="str">
+        <f ca="1">IF(B3=0,"",C3/B3)</f>
+        <v/>
+      </c>
+      <c r="E3" s="13">
         <f ca="1">SUM(INDIRECT("R1C:R[-1]C",))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="13">
         <f ca="1">SUM(INDIRECT("R1C:R[-1]C",))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="8" t="e">
-        <f ca="1">F3/E3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:AT3" ca="1" si="0">SUM(INDIRECT("R1C:R[-1]C",))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="e">
-        <f ca="1">I3/H3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M3" s="8" t="e">
-        <f ca="1">L3/K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="8" t="e">
-        <f ca="1">O3/N3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S3" s="8" t="e">
-        <f ca="1">R3/Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="8" t="e">
-        <f ca="1">U3/T3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="8" t="e">
-        <f ca="1">X3/W3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="8" t="e">
-        <f ca="1">AA3/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="8" t="e">
-        <f ca="1">AD3/AC3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="8" t="e">
-        <f ca="1">AG3/AF3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK3" s="8" t="e">
-        <f ca="1">AJ3/AI3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="8" t="e">
-        <f ca="1">AM3/AL3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="8" t="e">
-        <f ca="1">AP3/AO3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AS3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT3" s="8" t="e">
-        <f ca="1">AS3/AR3</f>
-        <v>#DIV/0!</v>
+      <c r="G3" s="7" t="str">
+        <f ca="1">IF(E3=0,"",F3/E3)</f>
+        <v/>
+      </c>
+      <c r="H3" s="13">
+        <f t="shared" ref="H3:AS3" ca="1" si="0">SUM(INDIRECT("R1C:R[-1]C",))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="str">
+        <f ca="1">IF(H3=0,"",I3/H3)</f>
+        <v/>
+      </c>
+      <c r="K3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="7" t="str">
+        <f ca="1">IF(K3=0,"",L3/K3)</f>
+        <v/>
+      </c>
+      <c r="N3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="7" t="str">
+        <f ca="1">IF(N3=0,"",O3/N3)</f>
+        <v/>
+      </c>
+      <c r="Q3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="7" t="str">
+        <f ca="1">IF(Q3=0,"",R3/Q3)</f>
+        <v/>
+      </c>
+      <c r="T3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="7" t="str">
+        <f ca="1">IF(T3=0,"",U3/T3)</f>
+        <v/>
+      </c>
+      <c r="W3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7" t="str">
+        <f ca="1">IF(W3=0,"",X3/W3)</f>
+        <v/>
+      </c>
+      <c r="Z3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="7" t="str">
+        <f ca="1">IF(Z3=0,"",AA3/Z3)</f>
+        <v/>
+      </c>
+      <c r="AC3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="7" t="str">
+        <f ca="1">IF(AC3=0,"",AD3/AC3)</f>
+        <v/>
+      </c>
+      <c r="AF3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="7" t="str">
+        <f ca="1">IF(AF3=0,"",AG3/AF3)</f>
+        <v/>
+      </c>
+      <c r="AI3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="7" t="str">
+        <f ca="1">IF(AI3=0,"",AJ3/AI3)</f>
+        <v/>
+      </c>
+      <c r="AL3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="7" t="str">
+        <f ca="1">IF(AL3=0,"",AM3/AL3)</f>
+        <v/>
+      </c>
+      <c r="AO3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="7" t="str">
+        <f ca="1">IF(AO3=0,"",AP3/AO3)</f>
+        <v/>
+      </c>
+      <c r="AR3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="7" t="str">
+        <f ca="1">IF(AR3=0,"",AS3/AR3)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/excelTemples.xlsx
+++ b/src/main/resources/templates/excelTemples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovej\IdeaProjects\dem\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9ED3B0-D84B-4C38-BFBA-B6434E2491D4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DF1311-ABCB-43B0-A26B-88889406B5DE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" xr2:uid="{66D246A4-1870-4BAB-BDDB-AEEA6D1F97D1}"/>
   </bookViews>
@@ -245,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,6 +270,9 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -285,7 +288,7 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1023,81 +1026,81 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="8" t="s">
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8" t="s">
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8" t="s">
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8" t="s">
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8" t="s">
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8" t="s">
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8" t="s">
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8" t="s">
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8" t="s">
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
     </row>
     <row r="2" spans="1:46" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1241,195 +1244,57 @@
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="13">
-        <f ca="1">SUM(INDIRECT("R1C:R[-1]C",))</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="13">
-        <f ca="1">SUM(INDIRECT("R1C:R[-1]C",))</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="str">
-        <f ca="1">IF(B3=0,"",C3/B3)</f>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="14" t="str">
+        <f>IF(B3=0,"",C3/B3)</f>
         <v/>
       </c>
-      <c r="E3" s="13">
-        <f ca="1">SUM(INDIRECT("R1C:R[-1]C",))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <f ca="1">SUM(INDIRECT("R1C:R[-1]C",))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="str">
-        <f ca="1">IF(E3=0,"",F3/E3)</f>
-        <v/>
-      </c>
-      <c r="H3" s="13">
-        <f t="shared" ref="H3:AS3" ca="1" si="0">SUM(INDIRECT("R1C:R[-1]C",))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="str">
-        <f ca="1">IF(H3=0,"",I3/H3)</f>
-        <v/>
-      </c>
-      <c r="K3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="str">
-        <f ca="1">IF(K3=0,"",L3/K3)</f>
-        <v/>
-      </c>
-      <c r="N3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="7" t="str">
-        <f ca="1">IF(N3=0,"",O3/N3)</f>
-        <v/>
-      </c>
-      <c r="Q3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S3" s="7" t="str">
-        <f ca="1">IF(Q3=0,"",R3/Q3)</f>
-        <v/>
-      </c>
-      <c r="T3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="7" t="str">
-        <f ca="1">IF(T3=0,"",U3/T3)</f>
-        <v/>
-      </c>
-      <c r="W3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7" t="str">
-        <f ca="1">IF(W3=0,"",X3/W3)</f>
-        <v/>
-      </c>
-      <c r="Z3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="7" t="str">
-        <f ca="1">IF(Z3=0,"",AA3/Z3)</f>
-        <v/>
-      </c>
-      <c r="AC3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="7" t="str">
-        <f ca="1">IF(AC3=0,"",AD3/AC3)</f>
-        <v/>
-      </c>
-      <c r="AF3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="7" t="str">
-        <f ca="1">IF(AF3=0,"",AG3/AF3)</f>
-        <v/>
-      </c>
-      <c r="AI3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK3" s="7" t="str">
-        <f ca="1">IF(AI3=0,"",AJ3/AI3)</f>
-        <v/>
-      </c>
-      <c r="AL3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="7" t="str">
-        <f ca="1">IF(AL3=0,"",AM3/AL3)</f>
-        <v/>
-      </c>
-      <c r="AO3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="7" t="str">
-        <f ca="1">IF(AO3=0,"",AP3/AO3)</f>
-        <v/>
-      </c>
-      <c r="AR3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AS3" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT3" s="7" t="str">
-        <f ca="1">IF(AR3=0,"",AS3/AR3)</f>
-        <v/>
-      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
@@ -1439,6 +1304,12 @@
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
